--- a/old_records/old_results/fossdroid31/flow_counts.xlsx
+++ b/old_records/old_results/fossdroid31/flow_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/git/AndroidTAEnvironment/results/fossdroid31/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/git/AndroidTAEnvironment/old_records/old_results/fossdroid31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D57ED76-F04A-BF48-847D-E8D9BC79A5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACF7F24-7E7F-DE4B-94A6-304A8BD5410E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0A98BC2E-15FB-5146-84E9-B36CD5D87BDA}"/>
+    <workbookView xWindow="14820" yWindow="460" windowWidth="13980" windowHeight="17540" xr2:uid="{0A98BC2E-15FB-5146-84E9-B36CD5D87BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>apk</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -260,12 +263,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -295,15 +311,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -343,20 +350,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18899A0D-5491-A14B-99D2-EE6796914952}" name="Table1" displayName="Table1" ref="A2:F33" totalsRowCount="1">
   <autoFilter ref="A2:F32" xr:uid="{6EFF18AD-6639-0848-AB06-568205A19DCD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A5B3A5D0-3428-ED42-BD8C-EC7C74BE79B8}" name="apk" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A5B3A5D0-3428-ED42-BD8C-EC7C74BE79B8}" name="apk" dataDxfId="9" totalsRowDxfId="7"/>
     <tableColumn id="2" xr3:uid="{9808F62E-18D0-FC4B-AD04-7DDBB7A4F22F}" name="version"/>
-    <tableColumn id="3" xr3:uid="{178A2F29-47D0-2641-AB29-3A8DF26C822B}" name="LOC" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{178A2F29-47D0-2641-AB29-3A8DF26C822B}" name="LOC" dataDxfId="8" totalsRowDxfId="6">
       <calculatedColumnFormula>H3+I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10EE9967-88EB-A045-A552-626E194425E5}" name="Total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{10EE9967-88EB-A045-A552-626E194425E5}" name="Total" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="5">
       <calculatedColumnFormula>K3+N3+Q3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CE6767AD-C28E-DD4E-AD94-9FBA2CA3C62D}" name="TP" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{CE6767AD-C28E-DD4E-AD94-9FBA2CA3C62D}" name="TP" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="4">
       <calculatedColumnFormula>L3+O3+R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{17C22213-3DB7-DA46-9A76-B0A7BE2F9B47}" name="FP" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0">
-      <calculatedColumnFormula>M3+P3+S3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{17C22213-3DB7-DA46-9A76-B0A7BE2F9B47}" name="FP" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,7 +685,8 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,20 +772,18 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <f>H3+I3</f>
+        <f t="shared" ref="C3:C32" si="0">H3+I3</f>
         <v>1274</v>
       </c>
       <c r="D3" s="6">
-        <f>K3+N3+Q3</f>
+        <f t="shared" ref="D3:D32" si="1">K3+N3+Q3</f>
         <v>28</v>
       </c>
-      <c r="E3">
-        <f>L3+O3+R3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>M3+P3+S3</f>
-        <v>28</v>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1956</v>
@@ -829,20 +833,18 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <f>H4+I4</f>
+        <f t="shared" si="0"/>
         <v>3313</v>
       </c>
       <c r="D4" s="6">
-        <f>K4+N4+Q4</f>
-        <v>178</v>
-      </c>
-      <c r="E4">
-        <f>L4+O4+R4</f>
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f>M4+P4+S4</f>
-        <v>136</v>
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G4">
         <v>4714</v>
@@ -857,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="L4" s="4">
         <v>6</v>
@@ -875,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -892,20 +894,18 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <f>H5+I5</f>
+        <f t="shared" si="0"/>
         <v>1177</v>
       </c>
       <c r="D5" s="6">
-        <f>K5+N5+Q5</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E5">
-        <f>L5+O5+R5</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>M5+P5+S5</f>
-        <v>12</v>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1687</v>
@@ -955,20 +955,18 @@
         <v>1005006</v>
       </c>
       <c r="C6">
-        <f>H6+I6</f>
+        <f t="shared" si="0"/>
         <v>14404</v>
       </c>
       <c r="D6" s="6">
-        <f>K6+N6+Q6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>L6+O6+R6</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>M6+P6+S6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G6">
         <v>520206</v>
@@ -1018,20 +1016,18 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <f>H7+I7</f>
+        <f t="shared" si="0"/>
         <v>2170</v>
       </c>
       <c r="D7" s="6">
-        <f>K7+N7+Q7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>L7+O7+R7</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>M7+P7+S7</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G7">
         <v>4022</v>
@@ -1081,20 +1077,18 @@
         <v>44</v>
       </c>
       <c r="C8">
-        <f>H8+I8</f>
+        <f t="shared" si="0"/>
         <v>5984</v>
       </c>
       <c r="D8" s="6">
-        <f>K8+N8+Q8</f>
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>L8+O8+R8</f>
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f>M8+P8+S8</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G8">
         <v>12693</v>
@@ -1109,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1144,20 +1138,18 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <f>H9+I9</f>
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
       <c r="D9" s="6">
-        <f>K9+N9+Q9</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>L9+O9+R9</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>M9+P9+S9</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G9">
         <v>12188</v>
@@ -1207,20 +1199,18 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f>H10+I10</f>
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
       <c r="D10" s="6">
-        <f>K10+N10+Q10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E10">
-        <f>L10+O10+R10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>M10+P10+S10</f>
-        <v>0</v>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
         <v>704</v>
@@ -1270,20 +1260,18 @@
         <v>41</v>
       </c>
       <c r="C11">
-        <f>H11+I11</f>
+        <f t="shared" si="0"/>
         <v>39149</v>
       </c>
       <c r="D11" s="6">
-        <f>K11+N11+Q11</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E11">
-        <f>L11+O11+R11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>M11+P11+S11</f>
-        <v>0</v>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
         <v>76054</v>
@@ -1333,20 +1321,18 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>H12+I12</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="D12" s="6">
-        <f>K12+N12+Q12</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>L12+O12+R12</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>M12+P12+S12</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G12">
         <v>1600</v>
@@ -1396,20 +1382,18 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f>H13+I13</f>
+        <f t="shared" si="0"/>
         <v>13496</v>
       </c>
       <c r="D13" s="6">
-        <f>K13+N13+Q13</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>L13+O13+R13</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>M13+P13+S13</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G13">
         <v>2336934</v>
@@ -1459,20 +1443,18 @@
         <v>820</v>
       </c>
       <c r="C14">
-        <f>H14+I14</f>
+        <f t="shared" si="0"/>
         <v>5387</v>
       </c>
       <c r="D14" s="6">
-        <f>K14+N14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>L14+O14+R14</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>M14+P14+S14</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G14">
         <v>39950</v>
@@ -1522,20 +1504,18 @@
         <v>72</v>
       </c>
       <c r="C15">
-        <f>H15+I15</f>
+        <f t="shared" si="0"/>
         <v>17429</v>
       </c>
       <c r="D15" s="6">
-        <f>K15+N15+Q15</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E15">
-        <f>L15+O15+R15</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>M15+P15+S15</f>
-        <v>39</v>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G15">
         <v>30983</v>
@@ -1585,20 +1565,18 @@
         <v>101030</v>
       </c>
       <c r="C16">
-        <f>H16+I16</f>
+        <f t="shared" si="0"/>
         <v>19870</v>
       </c>
       <c r="D16" s="6">
-        <f>K16+N16+Q16</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>L16+O16+R16</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>M16+P16+S16</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G16">
         <v>1057654</v>
@@ -1648,20 +1626,18 @@
         <v>355</v>
       </c>
       <c r="C17">
-        <f>H17+I17</f>
+        <f t="shared" si="0"/>
         <v>448794</v>
       </c>
       <c r="D17" s="6">
-        <f>K17+N17+Q17</f>
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <f>L17+O17+R17</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>M17+P17+S17</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G17">
         <v>858055</v>
@@ -1676,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -1711,20 +1687,18 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f>H18+I18</f>
+        <f t="shared" si="0"/>
         <v>1405</v>
       </c>
       <c r="D18" s="6">
-        <f>K18+N18+Q18</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E18">
-        <f>L18+O18+R18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>M18+P18+S18</f>
-        <v>35</v>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G18">
         <v>2872</v>
@@ -1774,20 +1748,18 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <f>H19+I19</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="D19" s="6">
-        <f>K19+N19+Q19</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>L19+O19+R19</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>M19+P19+S19</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G19">
         <v>3799</v>
@@ -1837,20 +1809,18 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <f>H20+I20</f>
+        <f t="shared" si="0"/>
         <v>72605</v>
       </c>
       <c r="D20" s="6">
-        <f>K20+N20+Q20</f>
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <f>L20+O20+R20</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>M20+P20+S20</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G20">
         <v>96423</v>
@@ -1865,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1900,20 +1870,18 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <f>H21+I21</f>
+        <f t="shared" si="0"/>
         <v>1868</v>
       </c>
       <c r="D21" s="6">
-        <f>K21+N21+Q21</f>
-        <v>101</v>
-      </c>
-      <c r="E21">
-        <f>L21+O21+R21</f>
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <f>M21+P21+S21</f>
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G21">
         <v>3340</v>
@@ -1928,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L21" s="4">
         <v>3</v>
@@ -1963,20 +1931,18 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f>H22+I22</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D22" s="6">
-        <f>K22+N22+Q22</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E22">
-        <f>L22+O22+R22</f>
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <f>M22+P22+S22</f>
-        <v>11</v>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G22">
         <v>4230</v>
@@ -2026,20 +1992,18 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <f>H23+I23</f>
+        <f t="shared" si="0"/>
         <v>18007</v>
       </c>
       <c r="D23" s="6">
-        <f>K23+N23+Q23</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E23">
-        <f>L23+O23+R23</f>
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <f>M23+P23+S23</f>
-        <v>30</v>
+      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G23">
         <v>182350</v>
@@ -2089,20 +2053,18 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <f>H24+I24</f>
+        <f t="shared" si="0"/>
         <v>4542</v>
       </c>
       <c r="D24" s="6">
-        <f>K24+N24+Q24</f>
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <f>L24+O24+R24</f>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f>M24+P24+S24</f>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G24">
         <v>5682</v>
@@ -2117,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -2152,20 +2114,18 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <f>H25+I25</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="D25" s="6">
-        <f>K25+N25+Q25</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>L25+O25+R25</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>M25+P25+S25</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G25">
         <v>54506</v>
@@ -2215,20 +2175,18 @@
         <v>923</v>
       </c>
       <c r="C26">
-        <f>H26+I26</f>
+        <f t="shared" si="0"/>
         <v>10837</v>
       </c>
       <c r="D26" s="6">
-        <f>K26+N26+Q26</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E26">
-        <f>L26+O26+R26</f>
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <f>M26+P26+S26</f>
-        <v>0</v>
+      <c r="E26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G26">
         <v>8727018</v>
@@ -2278,20 +2236,18 @@
         <v>1602221800</v>
       </c>
       <c r="C27">
-        <f>H27+I27</f>
+        <f t="shared" si="0"/>
         <v>121799</v>
       </c>
       <c r="D27" s="6">
-        <f>K27+N27+Q27</f>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>L27+O27+R27</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f>M27+P27+S27</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G27">
         <v>402488</v>
@@ -2341,20 +2297,18 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <f>H28+I28</f>
+        <f t="shared" si="0"/>
         <v>9836</v>
       </c>
       <c r="D28" s="6">
-        <f>K28+N28+Q28</f>
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <f>L28+O28+R28</f>
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <f>M28+P28+S28</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G28">
         <v>14340</v>
@@ -2369,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3">
         <v>4</v>
@@ -2404,20 +2358,18 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <f>H29+I29</f>
+        <f t="shared" si="0"/>
         <v>2803</v>
       </c>
       <c r="D29" s="6">
-        <f>K29+N29+Q29</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E29">
-        <f>L29+O29+R29</f>
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f>M29+P29+S29</f>
-        <v>1</v>
+      <c r="E29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G29">
         <v>17828</v>
@@ -2467,20 +2419,18 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <f>H30+I30</f>
+        <f t="shared" si="0"/>
         <v>2158</v>
       </c>
       <c r="D30" s="6">
-        <f>K30+N30+Q30</f>
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <f>L30+O30+R30</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>M30+P30+S30</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G30">
         <v>3484</v>
@@ -2504,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2530,20 +2480,18 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <f>H31+I31</f>
+        <f t="shared" si="0"/>
         <v>1224</v>
       </c>
       <c r="D31" s="6">
-        <f>K31+N31+Q31</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E31">
-        <f>L31+O31+R31</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>M31+P31+S31</f>
-        <v>0</v>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G31">
         <v>4166</v>
@@ -2593,20 +2541,18 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <f>H32+I32</f>
+        <f t="shared" si="0"/>
         <v>12003</v>
       </c>
       <c r="D32" s="6">
-        <f>K32+N32+Q32</f>
-        <v>54</v>
-      </c>
-      <c r="E32">
-        <f>L32+O32+R32</f>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>M32+P32+S32</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G32">
         <v>309982</v>
@@ -2621,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -2638,8 +2584,8 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" s="8">
-        <v>3</v>
+      <c r="Q32">
+        <v>9</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2653,43 +2599,43 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>761</v>
+        <v>869</v>
       </c>
       <c r="E33" s="6">
         <f>SUBTOTAL(109,Table1[TP])</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
         <f>SUBTOTAL(109,Table1[FP])</f>
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <f>SUM(K3:K32)</f>
-        <v>358</v>
+        <f t="shared" ref="K33:Q33" si="2">SUM(K3:K32)</f>
+        <v>423</v>
       </c>
       <c r="L33">
-        <f>SUM(L3:L32)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M33">
-        <f>SUM(M3:M32)</f>
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
       <c r="N33">
-        <f>SUM(N3:N32)</f>
-        <v>389</v>
+        <f t="shared" si="2"/>
+        <v>416</v>
       </c>
       <c r="O33">
-        <f>SUM(O3:O32)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="P33">
-        <f>SUM(P3:P32)</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="Q33">
-        <f>SUM(Q3:Q32)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
